--- a/reference/umberto7_results.xlsx
+++ b/reference/umberto7_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">0d_Ref_High_C+high N</t>
   </si>
   <si>
-    <t xml:space="preserve">cumulative energy demand - fossil, non-renewable energy resources, fossil</t>
+    <t xml:space="preserve">ReCiPe Midpoint (H) w/o LT - climate change w/o LT, GWP100 w/o LT</t>
   </si>
   <si>
     <t xml:space="preserve">T03: Activated sludge</t>
@@ -85,12 +85,6 @@
     <t xml:space="preserve">T51: Infrastructure</t>
   </si>
   <si>
-    <t xml:space="preserve">cumulative energy demand - nuclear, non-renewable energy resources, nuclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReCiPe Midpoint (H) w/o LT - climate change w/o LT, GWP100 w/o LT</t>
-  </si>
-  <si>
     <t xml:space="preserve">ReCiPe Midpoint (H) w/o LT - freshwater ecotoxicity w/o LT, FETPinf w/o LT</t>
   </si>
   <si>
@@ -108,11 +102,17 @@
   <si>
     <t xml:space="preserve">ReCiPe Midpoint (H) w/o LT - terrestrial acidification w/o LT, TAP100 w/o LT</t>
   </si>
+  <si>
+    <t xml:space="preserve">cumulative energy demand - fossil, non-renewable energy resources, fossil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative energy demand - nuclear, non-renewable energy resources, nuclear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -431,12 +431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -465,10 +465,18 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="n">
+        <v>25497.853749342</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6656.43604685712</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17548.3393606626</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2705.41640288366</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -477,10 +485,18 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="C3" t="n">
+        <v>606.90607229686</v>
+      </c>
+      <c r="D3" t="n">
+        <v>604.491505033655</v>
+      </c>
+      <c r="E3" t="n">
+        <v>614.569937111313</v>
+      </c>
+      <c r="F3" t="n">
+        <v>607.522912520846</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -489,10 +505,18 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4" t="n">
+        <v>276.752595708899</v>
+      </c>
+      <c r="D4" t="n">
+        <v>280.973517520725</v>
+      </c>
+      <c r="E4" t="n">
+        <v>283.775873480137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>282.396822178668</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -514,16 +538,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>145349.73968435</v>
+        <v>12519.8251439651</v>
       </c>
       <c r="D6" t="n">
-        <v>135761.014222378</v>
+        <v>11693.8920091822</v>
       </c>
       <c r="E6" t="n">
-        <v>162218.442773681</v>
+        <v>13972.8254282623</v>
       </c>
       <c r="F6" t="n">
-        <v>154544.861929755</v>
+        <v>13311.854926336</v>
       </c>
     </row>
     <row r="7">
@@ -534,16 +558,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>30204.4184203111</v>
+        <v>2601.68362199117</v>
       </c>
       <c r="D7" t="n">
-        <v>29674.4745271317</v>
+        <v>2556.03644785019</v>
       </c>
       <c r="E7" t="n">
-        <v>30949.9039321104</v>
+        <v>2665.89665928561</v>
       </c>
       <c r="F7" t="n">
-        <v>29824.1709867397</v>
+        <v>2568.93068146238</v>
       </c>
     </row>
     <row r="8">
@@ -554,16 +578,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>17733.7379534429</v>
+        <v>1548.48234155781</v>
       </c>
       <c r="D8" t="n">
-        <v>23087.2066388447</v>
+        <v>2015.93887819947</v>
       </c>
       <c r="E8" t="n">
-        <v>25930.3886636499</v>
+        <v>2264.20109853925</v>
       </c>
       <c r="F8" t="n">
-        <v>23881.7212186001</v>
+        <v>2085.31465222362</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +598,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>21443.1405254871</v>
+        <v>806.721535889044</v>
       </c>
       <c r="D9" t="n">
-        <v>22178.2007046036</v>
+        <v>834.375548414071</v>
       </c>
       <c r="E9" t="n">
-        <v>21870.5132166017</v>
+        <v>822.799906189477</v>
       </c>
       <c r="F9" t="n">
-        <v>22065.922178215</v>
+        <v>830.151470082453</v>
       </c>
     </row>
     <row r="10">
@@ -594,16 +618,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>22136.6428747237</v>
+        <v>1381.50586007873</v>
       </c>
       <c r="D10" t="n">
-        <v>22793.7685197418</v>
+        <v>1422.5158241703</v>
       </c>
       <c r="E10" t="n">
-        <v>23126.4624011178</v>
+        <v>1443.27861775804</v>
       </c>
       <c r="F10" t="n">
-        <v>23066.4073943889</v>
+        <v>1439.53069878981</v>
       </c>
     </row>
     <row r="11">
@@ -614,16 +638,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>5686.85034077449</v>
+        <v>6154.29854533961</v>
       </c>
       <c r="D11" t="n">
-        <v>5828.83647166996</v>
+        <v>6307.95566421315</v>
       </c>
       <c r="E11" t="n">
-        <v>5905.95066037821</v>
+        <v>6391.40849151713</v>
       </c>
       <c r="F11" t="n">
-        <v>5887.82697467256</v>
+        <v>6371.79507356329</v>
       </c>
     </row>
     <row r="12">
@@ -634,16 +658,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-22324.0868203375</v>
+        <v>-1262.37128862008</v>
       </c>
       <c r="D12" t="n">
-        <v>-21343.5421772551</v>
+        <v>-1206.92394089208</v>
       </c>
       <c r="E12" t="n">
-        <v>-21167.357792223</v>
+        <v>-1196.96115446513</v>
       </c>
       <c r="F12" t="n">
-        <v>-20941.6799309077</v>
+        <v>-1184.19963571212</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +678,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-147409.090227121</v>
+        <v>-12697.2090784779</v>
       </c>
       <c r="D13" t="n">
-        <v>-144622.759627227</v>
+        <v>-12457.2060899641</v>
       </c>
       <c r="E13" t="n">
-        <v>-146232.322024987</v>
+        <v>-12595.8471348123</v>
       </c>
       <c r="F13" t="n">
-        <v>-144461.472580765</v>
+        <v>-12443.3134911601</v>
       </c>
     </row>
     <row r="14">
@@ -674,16 +698,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>15000.3282365177</v>
+        <v>1683.10444997604</v>
       </c>
       <c r="D14" t="n">
-        <v>16240.8168271302</v>
+        <v>1822.29286199503</v>
       </c>
       <c r="E14" t="n">
-        <v>16713.8811027272</v>
+        <v>1875.37280630208</v>
       </c>
       <c r="F14" t="n">
-        <v>16753.0895196561</v>
+        <v>1879.77216743399</v>
       </c>
     </row>
     <row r="15">
@@ -694,16 +718,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>16603.6281139314</v>
+        <v>2134.28625613795</v>
       </c>
       <c r="D15" t="n">
-        <v>13830.5584936628</v>
+        <v>1778.32369701937</v>
       </c>
       <c r="E15" t="n">
-        <v>17109.839639665</v>
+        <v>2199.35815832203</v>
       </c>
       <c r="F15" t="n">
-        <v>12330.2141683686</v>
+        <v>1585.32652841963</v>
       </c>
     </row>
   </sheetData>
@@ -713,12 +737,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -796,16 +820,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>103170.352660012</v>
+        <v>3.24035250961388</v>
       </c>
       <c r="D6" t="n">
-        <v>96364.2022697874</v>
+        <v>3.02658638466468</v>
       </c>
       <c r="E6" t="n">
-        <v>115143.886636906</v>
+        <v>3.61641472003235</v>
       </c>
       <c r="F6" t="n">
-        <v>109697.120488221</v>
+        <v>3.44534384643231</v>
       </c>
     </row>
     <row r="7">
@@ -816,16 +840,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>21439.3263247763</v>
+        <v>0.6733618047217</v>
       </c>
       <c r="D7" t="n">
-        <v>21063.1681117098</v>
+        <v>0.661547507510381</v>
       </c>
       <c r="E7" t="n">
-        <v>21968.4776209691</v>
+        <v>0.689981276172323</v>
       </c>
       <c r="F7" t="n">
-        <v>21169.4237992896</v>
+        <v>0.664884763563432</v>
       </c>
     </row>
     <row r="8">
@@ -836,16 +860,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>2130.77326789233</v>
+        <v>1.2657561734079</v>
       </c>
       <c r="D8" t="n">
-        <v>2774.01204785515</v>
+        <v>1.64786320890617</v>
       </c>
       <c r="E8" t="n">
-        <v>3115.63073366815</v>
+        <v>1.85079702970964</v>
       </c>
       <c r="F8" t="n">
-        <v>2869.47587121479</v>
+        <v>1.7045721631508</v>
       </c>
     </row>
     <row r="9">
@@ -856,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>620.363900738212</v>
+        <v>0.558291275926996</v>
       </c>
       <c r="D9" t="n">
-        <v>641.629666331271</v>
+        <v>0.577429222851995</v>
       </c>
       <c r="E9" t="n">
-        <v>632.72806863674</v>
+        <v>0.569418304858934</v>
       </c>
       <c r="F9" t="n">
-        <v>638.381376067223</v>
+        <v>0.574505951343226</v>
       </c>
     </row>
     <row r="10">
@@ -876,16 +900,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>557.477888595809</v>
+        <v>1.07261495364952</v>
       </c>
       <c r="D10" t="n">
-        <v>574.026604640964</v>
+        <v>1.10445549953816</v>
       </c>
       <c r="E10" t="n">
-        <v>582.404997136514</v>
+        <v>1.12057593993967</v>
       </c>
       <c r="F10" t="n">
-        <v>580.892602572427</v>
+        <v>1.11766601820386</v>
       </c>
     </row>
     <row r="11">
@@ -896,16 +920,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>364.628033289503</v>
+        <v>0.20698253987675</v>
       </c>
       <c r="D11" t="n">
-        <v>373.731864155528</v>
+        <v>0.212150365340576</v>
       </c>
       <c r="E11" t="n">
-        <v>378.676252223172</v>
+        <v>0.214957066710036</v>
       </c>
       <c r="F11" t="n">
-        <v>377.514202322293</v>
+        <v>0.214297424504862</v>
       </c>
     </row>
     <row r="12">
@@ -916,16 +940,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-332.429077323972</v>
+        <v>-0.526010186170904</v>
       </c>
       <c r="D12" t="n">
-        <v>-317.827738707161</v>
+        <v>-0.502906151752494</v>
       </c>
       <c r="E12" t="n">
-        <v>-315.20416834451</v>
+        <v>-0.498754815936749</v>
       </c>
       <c r="F12" t="n">
-        <v>-311.843588186708</v>
+        <v>-0.493437292545961</v>
       </c>
     </row>
     <row r="13">
@@ -936,16 +960,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-104632.095365638</v>
+        <v>-3.28626261384891</v>
       </c>
       <c r="D13" t="n">
-        <v>-102654.336676543</v>
+        <v>-3.22414558927366</v>
       </c>
       <c r="E13" t="n">
-        <v>-103796.816329866</v>
+        <v>-3.26002834741473</v>
       </c>
       <c r="F13" t="n">
-        <v>-102539.853902104</v>
+        <v>-3.22054993862504</v>
       </c>
     </row>
     <row r="14">
@@ -956,16 +980,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>773.290503532482</v>
+        <v>0.883206532982471</v>
       </c>
       <c r="D14" t="n">
-        <v>837.23964062708</v>
+        <v>0.956245443201245</v>
       </c>
       <c r="E14" t="n">
-        <v>861.62684776759</v>
+        <v>0.984099064278064</v>
       </c>
       <c r="F14" t="n">
-        <v>863.648103302245</v>
+        <v>0.986407622426495</v>
       </c>
     </row>
     <row r="15">
@@ -976,16 +1000,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>800.819223361055</v>
+        <v>0.92933593651589</v>
       </c>
       <c r="D15" t="n">
-        <v>667.160451433038</v>
+        <v>0.774096065308692</v>
       </c>
       <c r="E15" t="n">
-        <v>825.203964492176</v>
+        <v>0.957642396283453</v>
       </c>
       <c r="F15" t="n">
-        <v>594.641800021455</v>
+        <v>0.690013086679882</v>
       </c>
     </row>
   </sheetData>
@@ -995,12 +1019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1029,18 +1053,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>25497.853749342</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6656.43604685712</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17548.3393606626</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2705.41640288366</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1049,18 +1065,10 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>606.90607229686</v>
-      </c>
-      <c r="D3" t="n">
-        <v>604.491505033655</v>
-      </c>
-      <c r="E3" t="n">
-        <v>614.569937111313</v>
-      </c>
-      <c r="F3" t="n">
-        <v>607.522912520846</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1069,18 +1077,10 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
-        <v>276.752595708899</v>
-      </c>
-      <c r="D4" t="n">
-        <v>280.973517520725</v>
-      </c>
-      <c r="E4" t="n">
-        <v>283.775873480137</v>
-      </c>
-      <c r="F4" t="n">
-        <v>282.396822178668</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1089,10 +1089,18 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="C5" t="n">
+        <v>106.257190472376</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.1639836686905</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32.2907562392375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.1605509436292</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1102,16 +1110,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>12519.8251439651</v>
+        <v>1.20600648558233</v>
       </c>
       <c r="D6" t="n">
-        <v>11693.8920091822</v>
+        <v>1.12644621171655</v>
       </c>
       <c r="E6" t="n">
-        <v>13972.8254282623</v>
+        <v>1.3459707220046</v>
       </c>
       <c r="F6" t="n">
-        <v>13311.854926336</v>
+        <v>1.28230092606611</v>
       </c>
     </row>
     <row r="7">
@@ -1122,16 +1130,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>2601.68362199117</v>
+        <v>0.250614308544646</v>
       </c>
       <c r="D7" t="n">
-        <v>2556.03644785019</v>
+        <v>0.246217219333773</v>
       </c>
       <c r="E7" t="n">
-        <v>2665.89665928561</v>
+        <v>0.256799805430227</v>
       </c>
       <c r="F7" t="n">
-        <v>2568.93068146238</v>
+        <v>0.247459291741663</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.48234155781</v>
+        <v>0.221422313221864</v>
       </c>
       <c r="D8" t="n">
-        <v>2015.93887819947</v>
+        <v>0.288265379426773</v>
       </c>
       <c r="E8" t="n">
-        <v>2264.20109853925</v>
+        <v>0.323765167598674</v>
       </c>
       <c r="F8" t="n">
-        <v>2085.31465222362</v>
+        <v>0.298185637445686</v>
       </c>
     </row>
     <row r="9">
@@ -1162,16 +1170,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>806.721535889044</v>
+        <v>0.0189181008018912</v>
       </c>
       <c r="D9" t="n">
-        <v>834.375548414071</v>
+        <v>0.0195666038766835</v>
       </c>
       <c r="E9" t="n">
-        <v>822.799906189477</v>
+        <v>0.0192951481677316</v>
       </c>
       <c r="F9" t="n">
-        <v>830.151470082453</v>
+        <v>0.019467546722365</v>
       </c>
     </row>
     <row r="10">
@@ -1182,16 +1190,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>1381.50586007873</v>
+        <v>0.0198732977166777</v>
       </c>
       <c r="D10" t="n">
-        <v>1422.5158241703</v>
+        <v>0.0204632360218947</v>
       </c>
       <c r="E10" t="n">
-        <v>1443.27861775804</v>
+        <v>0.0207619138562221</v>
       </c>
       <c r="F10" t="n">
-        <v>1439.53069878981</v>
+        <v>0.0207079991305405</v>
       </c>
     </row>
     <row r="11">
@@ -1202,16 +1210,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>6154.29854533961</v>
+        <v>0.0156125110479626</v>
       </c>
       <c r="D11" t="n">
-        <v>6307.95566421315</v>
+        <v>0.0160023155802481</v>
       </c>
       <c r="E11" t="n">
-        <v>6391.40849151713</v>
+        <v>0.0162140225974927</v>
       </c>
       <c r="F11" t="n">
-        <v>6371.79507356329</v>
+        <v>0.0161642663657733</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1230,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-1262.37128862008</v>
+        <v>-0.00994813815041146</v>
       </c>
       <c r="D12" t="n">
-        <v>-1206.92394089208</v>
+        <v>-0.00951118439501114</v>
       </c>
       <c r="E12" t="n">
-        <v>-1196.96115446513</v>
+        <v>-0.00943267248917824</v>
       </c>
       <c r="F12" t="n">
-        <v>-1184.19963571212</v>
+        <v>-0.0093321051262253</v>
       </c>
     </row>
     <row r="13">
@@ -1242,16 +1250,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-12697.2090784779</v>
+        <v>-1.2230934794501</v>
       </c>
       <c r="D13" t="n">
-        <v>-12457.2060899641</v>
+        <v>-1.19997453350809</v>
       </c>
       <c r="E13" t="n">
-        <v>-12595.8471348123</v>
+        <v>-1.21332951229831</v>
       </c>
       <c r="F13" t="n">
-        <v>-12443.3134911601</v>
+        <v>-1.19863629083565</v>
       </c>
     </row>
     <row r="14">
@@ -1262,16 +1270,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>1683.10444997604</v>
+        <v>0.0562803914340658</v>
       </c>
       <c r="D14" t="n">
-        <v>1822.29286199503</v>
+        <v>0.06093463515116</v>
       </c>
       <c r="E14" t="n">
-        <v>1875.37280630208</v>
+        <v>0.0627095458187316</v>
       </c>
       <c r="F14" t="n">
-        <v>1879.77216743399</v>
+        <v>0.0628566536031399</v>
       </c>
     </row>
     <row r="15">
@@ -1282,16 +1290,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>2134.28625613795</v>
+        <v>0.112388060955842</v>
       </c>
       <c r="D15" t="n">
-        <v>1778.32369701937</v>
+        <v>0.0935972291445191</v>
       </c>
       <c r="E15" t="n">
-        <v>2199.35815832203</v>
+        <v>0.115803723284304</v>
       </c>
       <c r="F15" t="n">
-        <v>1585.32652841963</v>
+        <v>0.0834022050807492</v>
       </c>
     </row>
   </sheetData>
@@ -1301,12 +1309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1384,16 +1392,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>3.24035250961388</v>
+        <v>853.246409498641</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02658638466468</v>
+        <v>796.957725460658</v>
       </c>
       <c r="E6" t="n">
-        <v>3.61641472003235</v>
+        <v>952.27073781961</v>
       </c>
       <c r="F6" t="n">
-        <v>3.44534384643231</v>
+        <v>907.224525027648</v>
       </c>
     </row>
     <row r="7">
@@ -1404,16 +1412,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6733618047217</v>
+        <v>177.308962672329</v>
       </c>
       <c r="D7" t="n">
-        <v>0.661547507510381</v>
+        <v>174.198033646429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.689981276172324</v>
+        <v>181.685185413817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664884763563432</v>
+        <v>175.07679660089</v>
       </c>
     </row>
     <row r="8">
@@ -1424,16 +1432,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2657561734079</v>
+        <v>355.487938980061</v>
       </c>
       <c r="D8" t="n">
-        <v>1.64786320890617</v>
+        <v>462.802795800664</v>
       </c>
       <c r="E8" t="n">
-        <v>1.85079702970964</v>
+        <v>519.796810305484</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7045721631508</v>
+        <v>478.729519833034</v>
       </c>
     </row>
     <row r="9">
@@ -1444,16 +1452,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.558291275926996</v>
+        <v>52.1774956487162</v>
       </c>
       <c r="D9" t="n">
-        <v>0.577429222851995</v>
+        <v>53.9661142165891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.569418304858935</v>
+        <v>53.2174196609899</v>
       </c>
       <c r="F9" t="n">
-        <v>0.574505951343226</v>
+        <v>53.6929073924712</v>
       </c>
     </row>
     <row r="10">
@@ -1464,16 +1472,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>1.07261495364952</v>
+        <v>291.798949679391</v>
       </c>
       <c r="D10" t="n">
-        <v>1.10445549953816</v>
+        <v>300.460993608491</v>
       </c>
       <c r="E10" t="n">
-        <v>1.12057593993967</v>
+        <v>304.846470019692</v>
       </c>
       <c r="F10" t="n">
-        <v>1.11766601820386</v>
+        <v>304.054841949182</v>
       </c>
     </row>
     <row r="11">
@@ -1484,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206982539876751</v>
+        <v>38.4480173160512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212150365340576</v>
+        <v>39.4079661264088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.214957066710037</v>
+        <v>39.9293246087149</v>
       </c>
       <c r="F11" t="n">
-        <v>0.214297424504862</v>
+        <v>39.8067928485865</v>
       </c>
     </row>
     <row r="12">
@@ -1504,16 +1512,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.526010186170904</v>
+        <v>-18.3618374791824</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.502906151752494</v>
+        <v>-17.5553273844018</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.498754815936749</v>
+        <v>-17.4104135489395</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.493437292545961</v>
+        <v>-17.2247907171763</v>
       </c>
     </row>
     <row r="13">
@@ -1524,16 +1532,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.28626261384891</v>
+        <v>-865.335412618526</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.22414558927366</v>
+        <v>-848.978819306433</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.26002834741473</v>
+        <v>-858.42743159659</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.22054993862504</v>
+        <v>-848.032016143306</v>
       </c>
     </row>
     <row r="14">
@@ -1544,16 +1552,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.883206532982471</v>
+        <v>140.856891563231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.956245443201245</v>
+        <v>152.505394458518</v>
       </c>
       <c r="E14" t="n">
-        <v>0.984099064278065</v>
+        <v>156.947588143852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.986407622426495</v>
+        <v>157.315765136025</v>
       </c>
     </row>
     <row r="15">
@@ -1564,16 +1572,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0.92933593651589</v>
+        <v>265.371827630899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.774096065308692</v>
+        <v>221.051398432685</v>
       </c>
       <c r="E15" t="n">
-        <v>0.957642396283454</v>
+        <v>273.44518093344</v>
       </c>
       <c r="F15" t="n">
-        <v>0.690013086679883</v>
+        <v>196.999117687755</v>
       </c>
     </row>
   </sheetData>
@@ -1583,12 +1591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1653,18 +1661,10 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>106.257190472376</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.1639836686905</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32.2907562392375</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.1605509436292</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1674,16 +1674,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>1.20600648558233</v>
+        <v>5.33158419400106</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12644621171655</v>
+        <v>4.97985946972784</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3459707220046</v>
+        <v>5.95034629814853</v>
       </c>
       <c r="F6" t="n">
-        <v>1.28230092606611</v>
+        <v>5.66887113054442</v>
       </c>
     </row>
     <row r="7">
@@ -1694,16 +1694,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250614308544646</v>
+        <v>1.107930431719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246217219333773</v>
+        <v>1.08849152188181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.256799805430227</v>
+        <v>1.1352756390802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.247459291741663</v>
+        <v>1.09398254842012</v>
       </c>
     </row>
     <row r="8">
@@ -1714,16 +1714,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221422313221864</v>
+        <v>3.62894310288634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288265379426773</v>
+        <v>4.72445005767559</v>
       </c>
       <c r="E8" t="n">
-        <v>0.323765167598674</v>
+        <v>5.30626455308853</v>
       </c>
       <c r="F8" t="n">
-        <v>0.298185637445686</v>
+        <v>4.88703553243086</v>
       </c>
     </row>
     <row r="9">
@@ -1734,16 +1734,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0189181008018912</v>
+        <v>0.801497997199996</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0195666038766835</v>
+        <v>0.828972949419941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0192951481677316</v>
+        <v>0.817472259719014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019467546722365</v>
+        <v>0.824776222083195</v>
       </c>
     </row>
     <row r="10">
@@ -1754,16 +1754,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198732977166777</v>
+        <v>4.90783974804404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0204632360218947</v>
+        <v>5.05352883822496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0207619138562221</v>
+        <v>5.12728926631647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0207079991305405</v>
+        <v>5.11397467517628</v>
       </c>
     </row>
     <row r="11">
@@ -1774,16 +1774,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0156125110479626</v>
+        <v>0.507578559567043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0160023155802481</v>
+        <v>0.520251500031415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0162140225974927</v>
+        <v>0.527134309755818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0161642663657733</v>
+        <v>0.525516684227929</v>
       </c>
     </row>
     <row r="12">
@@ -1794,16 +1794,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00994813815041146</v>
+        <v>-0.568806592954185</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00951118439501114</v>
+        <v>-0.543822804718644</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00943267248917824</v>
+        <v>-0.539333714500159</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0093321051262253</v>
+        <v>-0.533583555202132</v>
       </c>
     </row>
     <row r="13">
@@ -1814,16 +1814,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.2230934794501</v>
+        <v>-5.4071233785059</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.19997453350809</v>
+        <v>-5.30491778654601</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.21332951229831</v>
+        <v>-5.36395825994343</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.19863629083565</v>
+        <v>-5.29900160486255</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +1834,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0562803914340659</v>
+        <v>1.33928910026321</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0609346351511601</v>
+        <v>1.45004486655129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0627095458187316</v>
+        <v>1.49228193083689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0628566536031399</v>
+        <v>1.49578261459551</v>
       </c>
     </row>
     <row r="15">
@@ -1854,16 +1854,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112388060955842</v>
+        <v>2.21594940843267</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0935972291445191</v>
+        <v>1.84626091703381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.115803723284304</v>
+        <v>2.28345001375661</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0834022050807492</v>
+        <v>1.64565453653218</v>
       </c>
     </row>
   </sheetData>
@@ -1873,12 +1873,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1907,10 +1907,18 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="n">
+        <v>3.7881806287367</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.77514298285714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.80844217062188</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.78203957436315</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1919,10 +1927,18 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="C3" t="n">
+        <v>0.324869204993997</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.323576717436188</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.328971575662377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.325199391825736</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1943,10 +1959,18 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="C5" t="n">
+        <v>1463.22642406803</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729.775871428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1102.52385057134</v>
+      </c>
+      <c r="F5" t="n">
+        <v>550.874867565582</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1956,16 +1980,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>853.246409498641</v>
+        <v>1.03162823545945</v>
       </c>
       <c r="D6" t="n">
-        <v>796.957725460658</v>
+        <v>0.963571698515382</v>
       </c>
       <c r="E6" t="n">
-        <v>952.27073781961</v>
+        <v>1.15135483724304</v>
       </c>
       <c r="F6" t="n">
-        <v>907.224525027648</v>
+        <v>1.09689115066977</v>
       </c>
     </row>
     <row r="7">
@@ -1976,16 +2000,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>177.308962672329</v>
+        <v>0.21437761736411</v>
       </c>
       <c r="D7" t="n">
-        <v>174.198033646429</v>
+        <v>0.210616309744293</v>
       </c>
       <c r="E7" t="n">
-        <v>181.685185413817</v>
+        <v>0.219668744164669</v>
       </c>
       <c r="F7" t="n">
-        <v>175.07679660089</v>
+        <v>0.21167878907735</v>
       </c>
     </row>
     <row r="8">
@@ -1996,16 +2020,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>355.487938980061</v>
+        <v>0.250684691925246</v>
       </c>
       <c r="D8" t="n">
-        <v>462.802795800664</v>
+        <v>0.326361498002718</v>
       </c>
       <c r="E8" t="n">
-        <v>519.796810305484</v>
+        <v>0.366552810846458</v>
       </c>
       <c r="F8" t="n">
-        <v>478.729519833034</v>
+        <v>0.337592781738781</v>
       </c>
     </row>
     <row r="9">
@@ -2016,16 +2040,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>52.1774956487162</v>
+        <v>2.97253599769531</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9661142165891</v>
+        <v>3.07443305145472</v>
       </c>
       <c r="E9" t="n">
-        <v>53.2174196609899</v>
+        <v>3.03178015119326</v>
       </c>
       <c r="F9" t="n">
-        <v>53.6929073924712</v>
+        <v>3.05886854209279</v>
       </c>
     </row>
     <row r="10">
@@ -2036,16 +2060,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>291.798949679391</v>
+        <v>0.174113299842438</v>
       </c>
       <c r="D10" t="n">
-        <v>300.460993608491</v>
+        <v>0.17928184843911</v>
       </c>
       <c r="E10" t="n">
-        <v>304.846470019692</v>
+        <v>0.181898615121014</v>
       </c>
       <c r="F10" t="n">
-        <v>304.054841949182</v>
+        <v>0.181426259152098</v>
       </c>
     </row>
     <row r="11">
@@ -2056,16 +2080,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>38.4480173160512</v>
+        <v>0.2499161585221</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4079661264088</v>
+        <v>0.256155926806908</v>
       </c>
       <c r="E11" t="n">
-        <v>39.9293246087149</v>
+        <v>0.259544811805574</v>
       </c>
       <c r="F11" t="n">
-        <v>39.8067928485865</v>
+        <v>0.258748342470459</v>
       </c>
     </row>
     <row r="12">
@@ -2076,16 +2100,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-18.3618374791824</v>
+        <v>-0.0432044191122858</v>
       </c>
       <c r="D12" t="n">
-        <v>-17.5553273844018</v>
+        <v>-0.0413067441005833</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.4104135489395</v>
+        <v>-0.0409657696153456</v>
       </c>
       <c r="F12" t="n">
-        <v>-17.2247907171763</v>
+        <v>-0.0405290090444385</v>
       </c>
     </row>
     <row r="13">
@@ -2096,16 +2120,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-865.335412618526</v>
+        <v>-1.04624459577248</v>
       </c>
       <c r="D13" t="n">
-        <v>-848.978819306433</v>
+        <v>-1.02646845220031</v>
       </c>
       <c r="E13" t="n">
-        <v>-858.42743159659</v>
+        <v>-1.03789241498049</v>
       </c>
       <c r="F13" t="n">
-        <v>-848.032016143306</v>
+        <v>-1.02532370800259</v>
       </c>
     </row>
     <row r="14">
@@ -2116,16 +2140,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>140.856891563231</v>
+        <v>0.179948167420804</v>
       </c>
       <c r="D14" t="n">
-        <v>152.505394458518</v>
+        <v>0.194829418355281</v>
       </c>
       <c r="E14" t="n">
-        <v>156.947588143852</v>
+        <v>0.200504430803254</v>
       </c>
       <c r="F14" t="n">
-        <v>157.315765136025</v>
+        <v>0.200974786028993</v>
       </c>
     </row>
     <row r="15">
@@ -2136,16 +2160,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>265.371827630899</v>
+        <v>0.205760248633558</v>
       </c>
       <c r="D15" t="n">
-        <v>221.051398432685</v>
+        <v>0.171330932017508</v>
       </c>
       <c r="E15" t="n">
-        <v>273.44518093344</v>
+        <v>0.212044854319435</v>
       </c>
       <c r="F15" t="n">
-        <v>196.999117687755</v>
+        <v>0.152804280607527</v>
       </c>
     </row>
   </sheetData>
@@ -2155,12 +2179,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2189,10 +2213,18 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="n">
+        <v>100.880897178314</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.533699</v>
+      </c>
+      <c r="E2" t="n">
+        <v>101.420470848083</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100.717358230323</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2201,10 +2233,18 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="C3" t="n">
+        <v>30.2067612973434</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.0037165191487</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30.5882050587959</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.1541793298621</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2238,16 +2278,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>5.33158419400106</v>
+        <v>53.0564401049379</v>
       </c>
       <c r="D6" t="n">
-        <v>4.97985946972784</v>
+        <v>49.5563056068603</v>
       </c>
       <c r="E6" t="n">
-        <v>5.95034629814853</v>
+        <v>59.2139560182838</v>
       </c>
       <c r="F6" t="n">
-        <v>5.66887113054442</v>
+        <v>56.4128991789643</v>
       </c>
     </row>
     <row r="7">
@@ -2258,16 +2298,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>1.107930431719</v>
+        <v>11.0253992907169</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08849152188181</v>
+        <v>10.8319559691911</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1352756390802</v>
+        <v>11.2975209160585</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09398254842012</v>
+        <v>10.8865990752631</v>
       </c>
     </row>
     <row r="8">
@@ -2278,16 +2318,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>3.62894310288634</v>
+        <v>8.4995042641492</v>
       </c>
       <c r="D8" t="n">
-        <v>4.7244500576756</v>
+        <v>11.0653383843454</v>
       </c>
       <c r="E8" t="n">
-        <v>5.30626455308853</v>
+        <v>12.4280312247961</v>
       </c>
       <c r="F8" t="n">
-        <v>4.88703553243086</v>
+        <v>11.4461368418555</v>
       </c>
     </row>
     <row r="9">
@@ -2298,16 +2338,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.801497997199996</v>
+        <v>4.70376451998343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.828972949419941</v>
+        <v>4.86500722538245</v>
       </c>
       <c r="E9" t="n">
-        <v>0.817472259719014</v>
+        <v>4.79751293798618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.824776222083195</v>
+        <v>4.84037782242</v>
       </c>
     </row>
     <row r="10">
@@ -2318,16 +2358,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>4.90783974804404</v>
+        <v>4.34108178135943</v>
       </c>
       <c r="D10" t="n">
-        <v>5.05352883822496</v>
+        <v>4.46994667662813</v>
       </c>
       <c r="E10" t="n">
-        <v>5.12728926631647</v>
+        <v>4.5351892409765</v>
       </c>
       <c r="F10" t="n">
-        <v>5.11397467517628</v>
+        <v>4.52341222053732</v>
       </c>
     </row>
     <row r="11">
@@ -2338,16 +2378,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.507578559567044</v>
+        <v>5.82223427785777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.520251500031415</v>
+        <v>5.96760059994167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.527134309755819</v>
+        <v>6.04655060669449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.525516684227929</v>
+        <v>6.02799545967399</v>
       </c>
     </row>
     <row r="12">
@@ -2358,16 +2398,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.568806592954185</v>
+        <v>-1.66469304131352</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.543822804718644</v>
+        <v>-1.59157444716124</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.539333714500159</v>
+        <v>-1.57843648894995</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.533583555202132</v>
+        <v>-1.56160783350108</v>
       </c>
     </row>
     <row r="13">
@@ -2378,16 +2418,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.4071233785059</v>
+        <v>-53.8081566815543</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.30491778654601</v>
+        <v>-52.7910734524625</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.36395825994343</v>
+        <v>-53.3786056430076</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.29900160486255</v>
+        <v>-52.7321994803527</v>
       </c>
     </row>
     <row r="14">
@@ -2398,16 +2438,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>1.33928910026321</v>
+        <v>5.78777687884609</v>
       </c>
       <c r="D14" t="n">
-        <v>1.45004486655129</v>
+        <v>6.26641115071094</v>
       </c>
       <c r="E14" t="n">
-        <v>1.49228193083689</v>
+        <v>6.4489398549724</v>
       </c>
       <c r="F14" t="n">
-        <v>1.49578261459551</v>
+        <v>6.46406816185872</v>
       </c>
     </row>
     <row r="15">
@@ -2418,16 +2458,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>2.21594940843267</v>
+        <v>6.7076089286484</v>
       </c>
       <c r="D15" t="n">
-        <v>1.84626091703381</v>
+        <v>5.58662189842095</v>
       </c>
       <c r="E15" t="n">
-        <v>2.28345001375661</v>
+        <v>6.91214242659219</v>
       </c>
       <c r="F15" t="n">
-        <v>1.64565453653218</v>
+        <v>4.98084669018336</v>
       </c>
     </row>
   </sheetData>
@@ -2437,12 +2477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2471,18 +2511,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.7881806287367</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.77514298285714</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.80844217062188</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.78203957436315</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2491,18 +2523,10 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.324869204993997</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.323576717436188</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.328971575662377</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.325199391825736</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2523,18 +2547,10 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>1463.22642406803</v>
-      </c>
-      <c r="D5" t="n">
-        <v>729.775871428571</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1102.52385057134</v>
-      </c>
-      <c r="F5" t="n">
-        <v>550.874867565582</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2544,16 +2560,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03162823545945</v>
+        <v>145349.73968435</v>
       </c>
       <c r="D6" t="n">
-        <v>0.963571698515383</v>
+        <v>135761.014222378</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15135483724304</v>
+        <v>162218.442773681</v>
       </c>
       <c r="F6" t="n">
-        <v>1.09689115066977</v>
+        <v>154544.861929755</v>
       </c>
     </row>
     <row r="7">
@@ -2564,16 +2580,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214377617364111</v>
+        <v>30204.4184203111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210616309744293</v>
+        <v>29674.4745271317</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219668744164669</v>
+        <v>30949.9039321104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.21167878907735</v>
+        <v>29824.1709867397</v>
       </c>
     </row>
     <row r="8">
@@ -2584,16 +2600,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.250684691925246</v>
+        <v>17733.7379534429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.326361498002719</v>
+        <v>23087.2066388447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.366552810846458</v>
+        <v>25930.3886636499</v>
       </c>
       <c r="F8" t="n">
-        <v>0.337592781738781</v>
+        <v>23881.7212186001</v>
       </c>
     </row>
     <row r="9">
@@ -2604,16 +2620,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>2.97253599769531</v>
+        <v>21443.1405254871</v>
       </c>
       <c r="D9" t="n">
-        <v>3.07443305145472</v>
+        <v>22178.2007046036</v>
       </c>
       <c r="E9" t="n">
-        <v>3.03178015119326</v>
+        <v>21870.5132166017</v>
       </c>
       <c r="F9" t="n">
-        <v>3.05886854209279</v>
+        <v>22065.922178215</v>
       </c>
     </row>
     <row r="10">
@@ -2624,16 +2640,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174113299842438</v>
+        <v>22136.6428747237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17928184843911</v>
+        <v>22793.7685197418</v>
       </c>
       <c r="E10" t="n">
-        <v>0.181898615121014</v>
+        <v>23126.4624011178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.181426259152098</v>
+        <v>23066.4073943889</v>
       </c>
     </row>
     <row r="11">
@@ -2644,16 +2660,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2499161585221</v>
+        <v>5686.85034077449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256155926806908</v>
+        <v>5828.83647166996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.259544811805574</v>
+        <v>5905.95066037821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.258748342470459</v>
+        <v>5887.82697467256</v>
       </c>
     </row>
     <row r="12">
@@ -2664,16 +2680,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0432044191122859</v>
+        <v>-22324.0868203375</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0413067441005833</v>
+        <v>-21343.5421772551</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0409657696153456</v>
+        <v>-21167.357792223</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0405290090444385</v>
+        <v>-20941.6799309077</v>
       </c>
     </row>
     <row r="13">
@@ -2684,16 +2700,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.04624459577248</v>
+        <v>-147409.090227121</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.02646845220031</v>
+        <v>-144622.759627227</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.03789241498049</v>
+        <v>-146232.322024987</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.02532370800259</v>
+        <v>-144461.472580765</v>
       </c>
     </row>
     <row r="14">
@@ -2704,16 +2720,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179948167420804</v>
+        <v>15000.3282365177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194829418355281</v>
+        <v>16240.8168271302</v>
       </c>
       <c r="E14" t="n">
-        <v>0.200504430803254</v>
+        <v>16713.8811027272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200974786028993</v>
+        <v>16753.0895196561</v>
       </c>
     </row>
     <row r="15">
@@ -2724,16 +2740,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205760248633558</v>
+        <v>16603.6281139314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171330932017508</v>
+        <v>13830.5584936628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.212044854319435</v>
+        <v>17109.839639665</v>
       </c>
       <c r="F15" t="n">
-        <v>0.152804280607527</v>
+        <v>12330.2141683686</v>
       </c>
     </row>
   </sheetData>
@@ -2743,12 +2759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2777,18 +2793,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>100.880897178314</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.533699</v>
-      </c>
-      <c r="E2" t="n">
-        <v>101.420470848083</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100.717358230323</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2797,18 +2805,10 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>30.2067612973434</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.0037165191487</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30.5882050587959</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30.1541793298621</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2842,16 +2842,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>53.0564401049379</v>
+        <v>103170.352660012</v>
       </c>
       <c r="D6" t="n">
-        <v>49.5563056068603</v>
+        <v>96364.2022697874</v>
       </c>
       <c r="E6" t="n">
-        <v>59.2139560182838</v>
+        <v>115143.886636906</v>
       </c>
       <c r="F6" t="n">
-        <v>56.4128991789643</v>
+        <v>109697.120488221</v>
       </c>
     </row>
     <row r="7">
@@ -2862,16 +2862,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0253992907169</v>
+        <v>21439.3263247763</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8319559691911</v>
+        <v>21063.1681117098</v>
       </c>
       <c r="E7" t="n">
-        <v>11.2975209160585</v>
+        <v>21968.4776209691</v>
       </c>
       <c r="F7" t="n">
-        <v>10.8865990752631</v>
+        <v>21169.4237992896</v>
       </c>
     </row>
     <row r="8">
@@ -2882,16 +2882,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>8.4995042641492</v>
+        <v>2130.77326789233</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0653383843454</v>
+        <v>2774.01204785515</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4280312247961</v>
+        <v>3115.63073366815</v>
       </c>
       <c r="F8" t="n">
-        <v>11.4461368418555</v>
+        <v>2869.47587121479</v>
       </c>
     </row>
     <row r="9">
@@ -2902,16 +2902,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>4.70376451998343</v>
+        <v>620.363900738212</v>
       </c>
       <c r="D9" t="n">
-        <v>4.86500722538245</v>
+        <v>641.629666331271</v>
       </c>
       <c r="E9" t="n">
-        <v>4.79751293798618</v>
+        <v>632.72806863674</v>
       </c>
       <c r="F9" t="n">
-        <v>4.84037782242</v>
+        <v>638.381376067223</v>
       </c>
     </row>
     <row r="10">
@@ -2922,16 +2922,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>4.34108178135943</v>
+        <v>557.477888595809</v>
       </c>
       <c r="D10" t="n">
-        <v>4.46994667662813</v>
+        <v>574.026604640964</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5351892409765</v>
+        <v>582.404997136514</v>
       </c>
       <c r="F10" t="n">
-        <v>4.52341222053732</v>
+        <v>580.892602572427</v>
       </c>
     </row>
     <row r="11">
@@ -2942,16 +2942,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>5.82223427785776</v>
+        <v>364.628033289503</v>
       </c>
       <c r="D11" t="n">
-        <v>5.96760059994167</v>
+        <v>373.731864155528</v>
       </c>
       <c r="E11" t="n">
-        <v>6.04655060669449</v>
+        <v>378.676252223172</v>
       </c>
       <c r="F11" t="n">
-        <v>6.02799545967399</v>
+        <v>377.514202322293</v>
       </c>
     </row>
     <row r="12">
@@ -2962,16 +2962,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.66469304131352</v>
+        <v>-332.429077323972</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.59157444716124</v>
+        <v>-317.827738707161</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.57843648894995</v>
+        <v>-315.20416834451</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.56160783350108</v>
+        <v>-311.843588186708</v>
       </c>
     </row>
     <row r="13">
@@ -2982,16 +2982,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-53.8081566815543</v>
+        <v>-104632.095365638</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.7910734524625</v>
+        <v>-102654.336676543</v>
       </c>
       <c r="E13" t="n">
-        <v>-53.3786056430076</v>
+        <v>-103796.816329866</v>
       </c>
       <c r="F13" t="n">
-        <v>-52.7321994803527</v>
+        <v>-102539.853902104</v>
       </c>
     </row>
     <row r="14">
@@ -3002,16 +3002,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>5.78777687884609</v>
+        <v>773.290503532482</v>
       </c>
       <c r="D14" t="n">
-        <v>6.26641115071094</v>
+        <v>837.23964062708</v>
       </c>
       <c r="E14" t="n">
-        <v>6.4489398549724</v>
+        <v>861.62684776759</v>
       </c>
       <c r="F14" t="n">
-        <v>6.46406816185872</v>
+        <v>863.648103302245</v>
       </c>
     </row>
     <row r="15">
@@ -3022,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>6.7076089286484</v>
+        <v>800.819223361055</v>
       </c>
       <c r="D15" t="n">
-        <v>5.58662189842095</v>
+        <v>667.160451433038</v>
       </c>
       <c r="E15" t="n">
-        <v>6.91214242659219</v>
+        <v>825.203964492176</v>
       </c>
       <c r="F15" t="n">
-        <v>4.98084669018336</v>
+        <v>594.641800021455</v>
       </c>
     </row>
   </sheetData>
